--- a/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="B52" s="65">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B53" s="65">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
